--- a/sa/output02_phrase.xlsx
+++ b/sa/output02_phrase.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>선생에게 물었다. “‘사물에</t>
+          <t>선생에게 물었다.</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>이른다.［격물(格物)］’ 라는 것은</t>
+          <t>“‘사물에 이른다.［격물(格物)］’ 라는</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>외물(外物)에 이르는 것입니까?</t>
+          <t>것은 외물(外物)에 이르는 것입니까?</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>선생이 말하였다.</t>
+          <t>선생이 말하였다. “모두</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>“모두 구애받지 않는다.</t>
+          <t>구애받지 않는다.</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>눈에 보이는 모든 것이 물(物) 아닌 것이 없으니, 물(物)마다</t>
+          <t>눈에 보이는 모든 것이 물(物) 아닌 것이 없으니,</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>모두 이치가 있다.</t>
+          <t>물(物)마다 모두 이치가 있다.</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>“하나의 물(物)을 궁구하여</t>
+          <t>“하나의 물(物)을 궁구하여 이 하나의 물(物)의 이치를</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>이 하나의 물(物)의 이치를 보기만 하면</t>
+          <t>보기만 하면</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>구해야</t>
+          <t>구해야 하니,</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>하니, 안자(顔子) 같은 분도</t>
+          <t>안자(顔子) 같은</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>하나를 듣고 열을 알 수 있었을 뿐이다.</t>
+          <t>분도 하나를 듣고 열을 알 수 있었을 뿐이다.</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을</t>
+          <t>“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을 궁구한 것은</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>궁구한 것은 ≪자해(字解)≫ 한 부인데,</t>
+          <t>≪자해(字解)≫ 한</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>대부분 오행(五行)에서 추론하여 지어낸 것입니다.</t>
+          <t>부인데, 대부분 오행(五行)에서 추론하여 지어낸 것입니다.</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>지금 이치를 궁구하는 일도</t>
+          <t>지금 이치를 궁구하는 일도 그저</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>그저 이와 같이 공부할 뿐이니 이는</t>
+          <t>이와 같이 공부할 뿐이니 이는</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>도리어 스스로 옳지 않다고</t>
+          <t>도리어 스스로 옳지 않다고 여겼고,</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>여겼고, 만년에</t>
+          <t>만년에</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>“우선 자기를 위한 학문을 해야</t>
+          <t>“우선 자기를</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>남에게 미칠 수 있다.</t>
+          <t>위한 학문을 해야 남에게 미칠 수 있다.</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>인(仁)은</t>
+          <t>인(仁)은 남을</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>남을 사랑하는 것이니,</t>
+          <t>사랑하는 것이니,</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>“백성을 새롭게 한다.” 라는 것은</t>
+          <t>“백성을 새롭게 한다.” 라는</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>명덕(明德)으로</t>
+          <t>것은 명덕(明德)으로</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>선생에게 물었다.</t>
+          <t>선생에게 물었다. “‘날마다</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>“‘날마다 새롭게 한다.’ 라는 것은</t>
+          <t>새롭게</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>진보함이 있다는 뜻입니까?</t>
+          <t>한다.’ 라는 것은 진보함이 있다는 뜻입니까?</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>선생이 말하였다.</t>
+          <t>선생이 말하였다. “진보함이</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>“진보함이 있다는 뜻이다.</t>
+          <t>있다는 뜻이다.</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>유익함이 있기를 구한다면</t>
+          <t>유익함이 있기를</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>모름지기 날마다 자신을 새롭게 해야 한다.”</t>
+          <t>구한다면 모름지기 날마다 자신을 새롭게 해야 한다.”</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>선생에게 물었다. “‘마음에 성내는 바,</t>
+          <t>선생에게 물었다.</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>두려워하는 바, 걱정하는 바가 있으면</t>
+          <t>“‘마음에 성내는 바, 두려워하는 바, 걱정하는 바가 있으면</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>선생이 말하였다. “이는 이런 감정을 없애야 한다고 말하는</t>
+          <t>선생이 말하였다. “이는 이런 감정을</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>것이 아니다.</t>
+          <t>없애야 한다고 말하는 것이 아니다.</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>배우는 자가</t>
+          <t>배우는</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>마음을 동요하지 않는 경지에 아직 이르지 않았다면 모름지기</t>
+          <t>자가 마음을 동요하지 않는 경지에 아직 이르지 않았다면</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>자기의 의지를 잡고 지켜야 한다.”</t>
+          <t>모름지기 자기의 의지를 잡고 지켜야 한다.”</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>흉하리라.” 라고</t>
+          <t>흉하리라.”</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>하였는데, 규율에는 두 가지 의미가 있다.</t>
+          <t>라고 하였는데, 규율에는 두 가지 의미가 있다.</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>군대를 출동할 적에 의(義)로써 하지 않는 경우가 있고, 군대를</t>
+          <t>군대를 출동할 적에 의(義)로써 하지</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>움직이면서 호령과 절제가 없는 경우가 있으니,</t>
+          <t>않는 경우가 있고, 군대를 움직이면서 호령과 절제가 없는 경우가</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>모두 규율을 잃은 것이다.</t>
+          <t>있으니, 모두 규율을 잃은 것이다.</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>군대를 출동할 적에는</t>
+          <t>군대를 출동할 적에는 마땅히 규율에</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>마땅히 규율에 맞게 해야 하니,</t>
+          <t>맞게 해야 하니,</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>“자제(子弟)들이 여럿이 주장하면 하는 일이</t>
+          <t>“자제(子弟)들이 여럿이 주장하면 하는</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>바르더라도</t>
+          <t>일이 바르더라도</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>장자(長子)가 군대를</t>
+          <t>장자(長子)가</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>거느렸는데 지금 자제들이 여럿이 그 일을</t>
+          <t>군대를 거느렸는데 지금 자제들이 여럿이 그 일을 주장한다면</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>주장한다면 또한 이는 규율을 잃은 것이다.</t>
+          <t>또한 이는 규율을 잃은 것이다.</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>그러므로 하는 일이</t>
+          <t>그러므로</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>바르더라도</t>
+          <t>하는 일이 바르더라도</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>“멧돼지를 거세하여 이빨을 쓰지 못하게 한다.” 라고 하였으니, 멧돼지의</t>
+          <t>“멧돼지를 거세하여 이빨을 쓰지 못하게 한다.”</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>이빨은</t>
+          <t>라고 하였으니, 멧돼지의 이빨은</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>단지 그 이빨만을 다스려서</t>
+          <t>단지 그 이빨만을</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>어떻게 멧돼지를 제압할 수 있겠는가?</t>
+          <t>다스려서 어떻게 멧돼지를 제압할 수 있겠는가?</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>요즘 사람들이 악(惡)을 행할 적에</t>
+          <t>요즘 사람들이 악(惡)을 행할</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>단지 그의 악행만을</t>
+          <t>적에 단지 그의 악행만을 금지시키면 근원적인 악을</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>금지시키면 근원적인 악을 금지할 길이 없다.</t>
+          <t>금지할 길이 없다.</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>난이(難易)의 이(易)가 아니라,</t>
+          <t>난이(難易)의 이(易)가</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>화이(和易)․낙이(樂易)의 이(易)이다.</t>
+          <t>아니라, 화이(和易)․낙이(樂易)의 이(易)이다.</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1백여 개의</t>
+          <t>1백여 개의 학파가 있어 그 설을</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>학파가 있어 그 설을 두루 살펴보기가 어렵다.</t>
+          <t>두루 살펴보기가 어렵다.</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>만약 평소 ≪주역≫을 읽지 않으면</t>
+          <t>만약 평소 ≪주역≫을 읽지 않으면 글의</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>글의 의미를 깨닫지 못한다.</t>
+          <t>의미를 깨닫지 못한다.</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>의미를 이해하고,</t>
+          <t>의미를</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>또 숙독을</t>
+          <t>이해하고, 또 숙독을</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이</t>
+          <t>원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이 있는데, 이</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>있는데, 이 중에 하나라도 없으면</t>
+          <t>중에 하나라도 없으면</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>건괘(乾卦)가 아니니, 모름지기</t>
+          <t>건괘(乾卦)가 아니니, 모름지기 이 점을</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>이 점을 잘 알아야 한다.</t>
+          <t>잘 알아야 한다.</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>“반복하기를 도(道)로써 한다.” 라는 것은</t>
+          <t>“반복하기를 도(道)로써</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>종일토록 힘쓰고 반복하는 것이</t>
+          <t>한다.” 라는 것은 종일토록 힘쓰고 반복하는</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>모두 도를 말미암는다는 말이다.</t>
+          <t>것이 모두 도를 말미암는다는 말이다.</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에 있어</t>
+          <t>삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>나아가 올라갈 수도</t>
+          <t>있어 나아가 올라갈 수도</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>것이다. “이를 곳을 알아 그곳에 이른다.” 라는 것은</t>
+          <t>것이다. “이를 곳을 알아 그곳에 이른다.” 라는</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>지금 배우는 자가 이를 곳이 있는 것을 먼저 알게 되면</t>
+          <t>것은 지금 배우는 자가 이를 곳이 있는 것을 먼저 알게</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>이로부터 그곳에 이르는</t>
+          <t>되면 이로부터 그곳에 이르는</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>기미를 아는 자가 아니라면 어찌</t>
+          <t>기미를 아는 자가 아니라면 어찌 이를</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>이를 곳을 먼저 알 수</t>
+          <t>곳을 먼저 알 수 있겠는가? “마칠 바를 알아</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>있겠는가? “마칠 바를 알아 그것을 마친다.” 라는 것은</t>
+          <t>그것을 마친다.” 라는 것은</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>배움이 마치는 곳을 알아 그것을 마치는 것이니,</t>
+          <t>배움이 마치는 곳을 알아 그것을 마치는 것이니, 그러한</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>그러한 뒤에</t>
+          <t>뒤에</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고</t>
+          <t>구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고 하였는데, 이런 해석은</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>하였는데, 이런 해석은 대단히 일을 그르친다.</t>
+          <t>대단히 일을 그르친다.</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>항상 이러한 마음을 품으면 이는</t>
+          <t>항상 이러한 마음을 품으면</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>세상을 크게 어지럽히는 도(道)이고,</t>
+          <t>이는 세상을 크게 어지럽히는 도(道)이고,</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>것이다. “이를 바를 알아 그곳에 이른다.” 라는</t>
+          <t>것이다. “이를 바를 알아 그곳에 이른다.” 라는 것은</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>것은 단지 그 도에 이르는 것일 뿐이다.</t>
+          <t>단지 그 도에 이르는 것일 뿐이다.</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>“용구(用九)는</t>
+          <t>“용구(用九)는 단지</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>단지 상구효(上九爻)</t>
+          <t>상구효(上九爻)</t>
         </is>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>한 효(爻)에</t>
+          <t>한 효(爻)에 해당된다.” 라고 말한 것은 옳지</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>해당된다.” 라고 말한 것은 옳지 않다.</t>
+          <t>않다.</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>여섯 효가</t>
+          <t>여섯</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>모두 구(九)를 쓴다.</t>
+          <t>효가 모두 구(九)를 쓴다.</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>구(九)를 쓰는 것은</t>
+          <t>구(九)를</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>곧 강건함을 행하는 것이다. “용구(用九)는</t>
+          <t>쓰는 것은 곧 강건함을 행하는 것이다. “용구(用九)는</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>우두머리가 되어서는 안 된다는 것이다.” 라는</t>
+          <t>우두머리가 되어서는 안 된다는 것이다.” 라는 것은</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>것은 ‘건(乾)은 지극히 강건하니,</t>
+          <t>‘건(乾)은 지극히 강건하니, 또한</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>또한 어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.</t>
+          <t>어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>화(禍)가 있으니,</t>
+          <t>화(禍)가 있으니, 이른바</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>이른바 “감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.</t>
+          <t>“감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>건(乾)은 때에 순응하여 움직이니,</t>
+          <t>건(乾)은 때에 순응하여 움직이니, 지나치지 않는</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>지나치지</t>
+          <t>것이</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>않는 것이 곧 우두머리가 되지 않는 것이다.</t>
+          <t>곧 우두머리가 되지 않는 것이다.</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>태자로 보는 것이 합당하면</t>
+          <t>태자로 보는 것이</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>태자로 보는 것이다.</t>
+          <t>합당하면 태자로 보는 것이다.</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>다만 한 가지에 구애되어서는 안</t>
+          <t>다만 한 가지에 구애되어서는 안 되니,</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>되니, 만약 한 가지 일만</t>
+          <t>만약 한 가지 일만 고집한다면</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>고집한다면 384효(爻)가</t>
+          <t>384효(爻)가</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>현인(賢人)에게는</t>
+          <t>현인(賢人)에게는 현인의</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>현인의 용도가 있다.</t>
+          <t>용도가 있다.</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>임금에게는 임금의 용도가</t>
+          <t>임금에게는 임금의 용도가 있고, 신하에게는 신하의</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>있고, 신하에게는 신하의 용도가</t>
+          <t>용도가 있어</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>있어 통하지 않는 바가 없다.”</t>
+          <t>통하지 않는 바가 없다.”</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>예컨대 ‘두터운 덕으로 만물을 실어준다.’</t>
+          <t>예컨대 ‘두터운 덕으로 만물을</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>라는 것을 임금이</t>
+          <t>실어준다.’ 라는 것을 임금이 어찌 쓰지</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>어찌 쓰지 않을 수 있겠는가?”</t>
+          <t>않을 수 있겠는가?”</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>양(陽)을 해치는</t>
+          <t>양(陽)을 해치는 것이</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>것이 소인(小人)이다.</t>
+          <t>소인(小人)이다.</t>
         </is>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>이(利)가 의(義)에 조화로운</t>
+          <t>이(利)가 의(義)에 조화로운 것이</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>것이 선(善)이고, 이(利)가</t>
+          <t>선(善)이고,</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>의(義)를 해치는 것이</t>
+          <t>이(利)가 의(義)를 해치는 것이</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>인하여 선생에게 물었다.</t>
+          <t>인하여 선생에게 물었다. “이 이(利)와</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>“이 이(利)와 ‘이(利)를 근본으로 삼는다.’ 라는 말의</t>
+          <t>‘이(利)를 근본으로 삼는다.’ 라는 말의 이(利)는</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>이(利)는 같습니까?”</t>
+          <t>같습니까?”</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’</t>
+          <t>그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’ 라고 말한</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>라고 말한 경우는 대개 이(利)만을 마음에 두면</t>
+          <t>경우는 대개 이(利)만을 마음에 두면</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>‘인(仁)하면서도 자기 어버이를 버리는 자는</t>
+          <t>‘인(仁)하면서도 자기 어버이를 버리는 자는 있지 않으며, 의로우면서도</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>있지 않으며, 의로우면서도 자기 임금을 뒤로하는 자는</t>
+          <t>자기 임금을 뒤로하는 자는 있지 않다.’ 라고</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>있지 않다.’ 라고 하였으니, 자기 어버이를 버리지 않고</t>
+          <t>하였으니, 자기 어버이를 버리지 않고</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>오히려 장점이 있으나,</t>
+          <t>오히려 장점이 있으나, ≪주역≫은 전혀</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>≪주역≫은</t>
+          <t>이해를</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>전혀 이해를 못하십니다.” 라고 하였다.</t>
+          <t>못하십니다.” 라고 하였다.</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>답하였다.</t>
+          <t>답하였다. “제가</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>“제가 보기로는</t>
+          <t>보기로는</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>“전운사로서 능히 절조를 굽혀 일개 주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을</t>
+          <t>“전운사로서 능히 절조를 굽혀 일개</t>
         </is>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>알지 못한다고 감히 말하였으니, ≪주역≫의</t>
+          <t>주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을 알지 못한다고 감히 말하였으니, ≪주역≫의 도를</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>도를 깊이 아는 사람이 아니라면 그렇게</t>
+          <t>깊이 아는 사람이 아니라면 그렇게</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>“구름이 가고 비가 내린다.” 라는 것은</t>
+          <t>“구름이 가고 비가 내린다.” 라는</t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>건(乾)이 형통한 것이다.</t>
+          <t>것은 건(乾)이 형통한 것이다.</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>만일 성인(聖人)이 일찍이 실천한 점을 보고자</t>
+          <t>만일 성인(聖人)이 일찍이 실천한 점을 보고자 한다면</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>한다면 마땅히 순(舜)임금의 일에서 볼 수 있다.</t>
+          <t>마땅히 순(舜)임금의 일에서 볼 수 있다.</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을 굽고</t>
+          <t>있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>물고기를 잡았을 때가</t>
+          <t>굽고 물고기를 잡았을 때가</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>곧 ‘견(見)’ 이고, 그윽한 덕이</t>
+          <t>곧 ‘견(見)’ 이고, 그윽한 덕이 위로 올라가 알려진</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>위로 올라가 알려진 때가</t>
+          <t>때가</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>곧 ‘건건(乾乾)’ 이고,</t>
+          <t>곧 ‘건건(乾乾)’</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>대록(大麓)에 들어갔을 때가</t>
+          <t>이고, 대록(大麓)에 들어갔을 때가</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>무왕(武王)이 군대를 사열한 것을 건괘(乾卦)</t>
+          <t>무왕(武王)이 군대를</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>구사효(九四爻)의 의미로 여겼으니,</t>
+          <t>사열한 것을 건괘(乾卦) 구사효(九四爻)의</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>이는 대단히 의리가 없다.</t>
+          <t>의미로 여겼으니, 이는 대단히 의리가 없다.</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>임금이니, 신하된</t>
+          <t>임금이니,</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>자가 어찌</t>
+          <t>신하된 자가</t>
         </is>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>군대를 이끌고 자기 임금을 협박할 수 있겠는가.</t>
+          <t>어찌 군대를 이끌고 자기 임금을 협박할 수 있겠는가.</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>또 주(紂)는 사나움이 이와 같았는데</t>
+          <t>또 주(紂)는</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고 하였으니,</t>
+          <t>사나움이 이와 같았는데 태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>옳은지 알 수 없다.</t>
+          <t>하였으니, 옳은지 알 수 없다.</t>
         </is>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>‘십유일년(十有一年)’ 이라 하고, 그</t>
+          <t>‘십유일년(十有一年)’ 이라 하고,</t>
         </is>
       </c>
     </row>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>뒤 정경(正經)에</t>
+          <t>그 뒤 정경(正經)에</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>‘유십유삼년(惟十有三年)’ 이라</t>
+          <t>‘유십유삼년(惟十有三年)’ 이라 하여</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>하여 선유(先儒)들이 잘못</t>
+          <t>선유(先儒)들이 잘못</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니,</t>
+          <t>‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니, 이는</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>이는 성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.</t>
+          <t>성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>음양(陰陽)의 수를 정한 것이니,</t>
+          <t>음양(陰陽)의 수를 정한</t>
         </is>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>어찌 의리를 말한 것이겠는가.</t>
+          <t>것이니, 어찌 의리를 말한 것이겠는가.</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>되니, 단지 하도(河圖)의 수(數)에서 취하여 살펴보건대</t>
+          <t>되니, 단지 하도(河圖)의 수(數)에서 취하여</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>육(六)을 지나면 하나의 양(陽)이 생겨나니,</t>
+          <t>살펴보건대 육(六)을 지나면 하나의 양(陽)이 생겨나니,</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>팔(八)에 이르면</t>
+          <t>팔(八)에 이르면 곧</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>곧 순음(純陰)이 아니다.</t>
+          <t>순음(純陰)이 아니다.</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고</t>
+          <t>&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고 하였으니</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>하였으니 물과 풀이 만나는 곳을 말하니</t>
+          <t>물과 풀이 만나는 곳을 말하니</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>엄(隒)이다.”라고</t>
+          <t>엄(隒)이다.”라고 하였으니</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>하였으니 엄(隒)은</t>
+          <t>엄(隒)은</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>승(升)은</t>
+          <t>승(升)은 이르기</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>이르기</t>
+          <t>어려움을</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>어려움을 말하니</t>
+          <t>말하니</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라 하고,</t>
+          <t>&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은 모래톱[소지(小沚)]을</t>
+          <t>하고, 저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>지(坻)라고 한다.”라고</t>
+          <t>모래톱[소지(小沚)]을 지(坻)라고 한다.”라고 하였다. 그렇다면</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>하였다. 그렇다면 지(坻)는</t>
+          <t>지(坻)는</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은,</t>
+          <t>&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은, 저(渚)나</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>저(渚)나 지(沚)가</t>
+          <t>지(沚)가</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>모두 물 가운데 있는 땅으로 그</t>
+          <t>모두 물 가운데 있는 땅으로</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>크기가 다른데</t>
+          <t>그 크기가 다른데</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>‘차우(且右)’라고</t>
+          <t>‘차우(且右)’라고 하였기</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>하였기 때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.</t>
+          <t>때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.</t>
         </is>
       </c>
     </row>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>따라가면 쉽게 이르는데</t>
+          <t>따라가면 쉽게</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>지금 오히려 우측으로 돌아 나가니 이는 이르기</t>
+          <t>이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>좌측으로 돌아 나가는 것도</t>
+          <t>좌측으로</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>역시 우회하는 것이다.</t>
+          <t>돌아 나가는 것도 역시 우회하는 것이다.</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>그런데 우(右)라고 한</t>
+          <t>그런데 우(右)라고 한 것은</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>것은 사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.</t>
+          <t>사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.</t>
         </is>
       </c>
     </row>

--- a/sa/output02_phrase.xlsx
+++ b/sa/output02_phrase.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>선생에게 물었다.</t>
+          <t>선생에게 물었다. “‘사물에</t>
         </is>
       </c>
     </row>
@@ -487,7 +487,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>“‘사물에 이른다.［격물(格物)］’ 라는</t>
+          <t>이른다.［격물(格物)］’ 라는 것은</t>
         </is>
       </c>
     </row>
@@ -505,7 +505,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>것은 외물(外物)에 이르는 것입니까?</t>
+          <t>외물(外物)에 이르는 것입니까?</t>
         </is>
       </c>
     </row>
@@ -541,7 +541,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>선생이 말하였다. “모두</t>
+          <t>선생이 말하였다.</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>구애받지 않는다.</t>
+          <t>“모두 구애받지 않는다.</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>눈에 보이는 모든 것이 물(物) 아닌 것이 없으니,</t>
+          <t>눈에 보이는 모든 것이 물(物) 아닌 것이 없으니, 물(物)마다</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>물(物)마다 모두 이치가 있다.</t>
+          <t>모두 이치가 있다.</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>“하나의 물(物)을 궁구하여 이 하나의 물(物)의 이치를</t>
+          <t>“하나의 물(物)을 궁구하여</t>
         </is>
       </c>
     </row>
@@ -721,7 +721,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>보기만 하면</t>
+          <t>이 하나의 물(物)의 이치를 보기만 하면</t>
         </is>
       </c>
     </row>
@@ -775,7 +775,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>구해야 하니,</t>
+          <t>구해야</t>
         </is>
       </c>
     </row>
@@ -793,7 +793,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>안자(顔子) 같은</t>
+          <t>하니, 안자(顔子) 같은 분도</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>분도 하나를 듣고 열을 알 수 있었을 뿐이다.</t>
+          <t>하나를 듣고 열을 알 수 있었을 뿐이다.</t>
         </is>
       </c>
     </row>
@@ -901,7 +901,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을 궁구한 것은</t>
+          <t>“예컨대 형공(荊公)(왕안석(王安石))이 물(物)을</t>
         </is>
       </c>
     </row>
@@ -919,7 +919,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>≪자해(字解)≫ 한</t>
+          <t>궁구한 것은 ≪자해(字解)≫ 한 부인데,</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>부인데, 대부분 오행(五行)에서 추론하여 지어낸 것입니다.</t>
+          <t>대부분 오행(五行)에서 추론하여 지어낸 것입니다.</t>
         </is>
       </c>
     </row>
@@ -955,7 +955,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>지금 이치를 궁구하는 일도 그저</t>
+          <t>지금 이치를 궁구하는 일도</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>이와 같이 공부할 뿐이니 이는</t>
+          <t>그저 이와 같이 공부할 뿐이니 이는</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>도리어 스스로 옳지 않다고 여겼고,</t>
+          <t>도리어 스스로 옳지 않다고</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>만년에</t>
+          <t>여겼고, 만년에</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>“‘옛날의 배우는 자들은</t>
+          <t>“‘옛날의 배우는 자들은 자기를 위한 실질적인 학문을 하였다.’ 라고</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>자기를 위한</t>
+          <t>하였는데,</t>
         </is>
       </c>
     </row>
@@ -1189,7 +1189,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>실질적인 학문을 하였다.’ 라고 하였는데, 모르겠습니다만</t>
+          <t>모르겠습니다만</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>“우선 자기를</t>
+          <t>“우선 자기를 위한 학문을 해야</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>위한 학문을 해야 남에게 미칠 수 있다.</t>
+          <t>남에게 미칠 수 있다.</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1423,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>인(仁)은 남을</t>
+          <t>인(仁)은</t>
         </is>
       </c>
     </row>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>사랑하는 것이니,</t>
+          <t>남을 사랑하는 것이니,</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>“백성을 새롭게 한다.” 라는</t>
+          <t>“백성을 새롭게 한다.” 라는 것은</t>
         </is>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>것은 명덕(明德)으로</t>
+          <t>명덕(明德)으로</t>
         </is>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>선생에게 물었다. “‘날마다</t>
+          <t>선생에게 물었다.</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>새롭게</t>
+          <t>“‘날마다 새롭게 한다.’ 라는 것은</t>
         </is>
       </c>
     </row>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>한다.’ 라는 것은 진보함이 있다는 뜻입니까?</t>
+          <t>진보함이 있다는 뜻입니까?</t>
         </is>
       </c>
     </row>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>선생이 말하였다. “진보함이</t>
+          <t>선생이 말하였다.</t>
         </is>
       </c>
     </row>
@@ -1621,7 +1621,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>있다는 뜻이다.</t>
+          <t>“진보함이 있다는 뜻이다.</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>유익함이 있기를</t>
+          <t>유익함이 있기를 구한다면</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>구한다면 모름지기 날마다 자신을 새롭게 해야 한다.”</t>
+          <t>모름지기 날마다 자신을 새롭게 해야 한다.”</t>
         </is>
       </c>
     </row>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>선생에게 물었다.</t>
+          <t>선생에게 물었다. “‘마음에 성내는 바,</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>“‘마음에 성내는 바, 두려워하는 바, 걱정하는 바가 있으면</t>
+          <t>두려워하는 바, 걱정하는 바가 있으면</t>
         </is>
       </c>
     </row>
@@ -1783,7 +1783,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>선생이 말하였다. “이는 이런 감정을</t>
+          <t>선생이 말하였다. “이는 이런 감정을 없애야 한다고 말하는</t>
         </is>
       </c>
     </row>
@@ -1801,7 +1801,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>없애야 한다고 말하는 것이 아니다.</t>
+          <t>것이 아니다.</t>
         </is>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>배우는</t>
+          <t>배우는 자가</t>
         </is>
       </c>
     </row>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>자가 마음을 동요하지 않는 경지에 아직 이르지 않았다면</t>
+          <t>마음을 동요하지 않는 경지에 아직 이르지 않았다면 모름지기</t>
         </is>
       </c>
     </row>
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>모름지기 자기의 의지를 잡고 지켜야 한다.”</t>
+          <t>자기의 의지를 잡고 지켜야 한다.”</t>
         </is>
       </c>
     </row>
@@ -1945,7 +1945,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>흉하리라.”</t>
+          <t>흉하리라.” 라고</t>
         </is>
       </c>
     </row>
@@ -1963,7 +1963,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>라고 하였는데, 규율에는 두 가지 의미가 있다.</t>
+          <t>하였는데, 규율에는 두 가지 의미가 있다.</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>군대를 출동할 적에 의(義)로써 하지</t>
+          <t>군대를 출동할 적에 의(義)로써 하지 않는 경우가 있고, 군대를</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>않는 경우가 있고, 군대를 움직이면서 호령과 절제가 없는 경우가</t>
+          <t>움직이면서 호령과 절제가 없는 경우가 있으니,</t>
         </is>
       </c>
     </row>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>있으니, 모두 규율을 잃은 것이다.</t>
+          <t>모두 규율을 잃은 것이다.</t>
         </is>
       </c>
     </row>
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>군대를 출동할 적에는 마땅히 규율에</t>
+          <t>군대를 출동할 적에는</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>맞게 해야 하니,</t>
+          <t>마땅히 규율에 맞게 해야 하니,</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>“자제(子弟)들이 여럿이 주장하면 하는</t>
+          <t>“자제(子弟)들이 여럿이 주장하면 하는 일이</t>
         </is>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>일이 바르더라도</t>
+          <t>바르더라도</t>
         </is>
       </c>
     </row>
@@ -2215,7 +2215,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>장자(長子)가</t>
+          <t>장자(長子)가 군대를</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>군대를 거느렸는데 지금 자제들이 여럿이 그 일을 주장한다면</t>
+          <t>거느렸는데 지금 자제들이 여럿이 그 일을</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>또한 이는 규율을 잃은 것이다.</t>
+          <t>주장한다면 또한 이는 규율을 잃은 것이다.</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>그러므로</t>
+          <t>그러므로 하는 일이</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>하는 일이 바르더라도</t>
+          <t>바르더라도</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>“멧돼지를 거세하여 이빨을 쓰지 못하게 한다.”</t>
+          <t>“멧돼지를 거세하여 이빨을 쓰지 못하게 한다.” 라고 하였으니, 멧돼지의</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>라고 하였으니, 멧돼지의 이빨은</t>
+          <t>이빨은</t>
         </is>
       </c>
     </row>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>단지 그 이빨만을</t>
+          <t>단지 그 이빨만을 다스려서</t>
         </is>
       </c>
     </row>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>다스려서 어떻게 멧돼지를 제압할 수 있겠는가?</t>
+          <t>어떻게 멧돼지를 제압할 수 있겠는가?</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>요즘 사람들이 악(惡)을 행할</t>
+          <t>요즘 사람들이 악(惡)을 행할 적에</t>
         </is>
       </c>
     </row>
@@ -2431,7 +2431,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>적에 단지 그의 악행만을 금지시키면 근원적인 악을</t>
+          <t>단지 그의 악행만을</t>
         </is>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>금지할 길이 없다.</t>
+          <t>금지시키면 근원적인 악을 금지할 길이 없다.</t>
         </is>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>난이(難易)의 이(易)가</t>
+          <t>난이(難易)의 이(易)가 아니라,</t>
         </is>
       </c>
     </row>
@@ -2683,7 +2683,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>아니라, 화이(和易)․낙이(樂易)의 이(易)이다.</t>
+          <t>화이(和易)․낙이(樂易)의 이(易)이다.</t>
         </is>
       </c>
     </row>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>1백여 개의 학파가 있어 그 설을</t>
+          <t>1백여 개의</t>
         </is>
       </c>
     </row>
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>두루 살펴보기가 어렵다.</t>
+          <t>학파가 있어 그 설을 두루 살펴보기가 어렵다.</t>
         </is>
       </c>
     </row>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>만약 평소 ≪주역≫을 읽지 않으면 글의</t>
+          <t>만약 평소 ≪주역≫을 읽지 않으면</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>의미를 깨닫지 못한다.</t>
+          <t>글의 의미를 깨닫지 못한다.</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>의미를</t>
+          <t>의미를 이해하고,</t>
         </is>
       </c>
     </row>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>이해하고, 또 숙독을</t>
+          <t>또 숙독을</t>
         </is>
       </c>
     </row>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이 있는데, 이</t>
+          <t>원(元)․형(亨)․이(利)․정(貞) 네 가지 덕(德)이</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>중에 하나라도 없으면</t>
+          <t>있는데, 이 중에 하나라도 없으면</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>건괘(乾卦)가 아니니, 모름지기 이 점을</t>
+          <t>건괘(乾卦)가 아니니, 모름지기</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>잘 알아야 한다.</t>
+          <t>이 점을 잘 알아야 한다.</t>
         </is>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>“반복하기를 도(道)로써</t>
+          <t>“반복하기를 도(道)로써 한다.” 라는 것은</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>한다.” 라는 것은 종일토록 힘쓰고 반복하는</t>
+          <t>종일토록 힘쓰고 반복하는 것이</t>
         </is>
       </c>
     </row>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>것이 모두 도를 말미암는다는 말이다.</t>
+          <t>모두 도를 말미암는다는 말이다.</t>
         </is>
       </c>
     </row>
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에</t>
+          <t>삼위(三位)가 이체(二體)(내괘(內卦)와 외괘(外卦))의 가운데에 있어</t>
         </is>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>있어 나아가 올라갈 수도</t>
+          <t>나아가 올라갈 수도</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>것이다. “이를 곳을 알아 그곳에 이른다.” 라는</t>
+          <t>것이다. “이를 곳을 알아 그곳에 이른다.” 라는 것은</t>
         </is>
       </c>
     </row>
@@ -3169,7 +3169,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>것은 지금 배우는 자가 이를 곳이 있는 것을 먼저 알게</t>
+          <t>지금 배우는 자가 이를 곳이 있는 것을 먼저 알게 되면</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>되면 이로부터 그곳에 이르는</t>
+          <t>이로부터 그곳에 이르는</t>
         </is>
       </c>
     </row>
@@ -3223,7 +3223,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>기미를 아는 자가 아니라면 어찌 이를</t>
+          <t>기미를 아는 자가 아니라면 어찌</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>곳을 먼저 알 수 있겠는가? “마칠 바를 알아</t>
+          <t>이를 곳을 먼저 알 수</t>
         </is>
       </c>
     </row>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>그것을 마친다.” 라는 것은</t>
+          <t>있겠는가? “마칠 바를 알아 그것을 마친다.” 라는 것은</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>배움이 마치는 곳을 알아 그것을 마치는 것이니, 그러한</t>
+          <t>배움이 마치는 곳을 알아 그것을 마치는 것이니,</t>
         </is>
       </c>
     </row>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>뒤에</t>
+          <t>그러한 뒤에</t>
         </is>
       </c>
     </row>
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고 하였는데, 이런 해석은</t>
+          <t>구오효(九五爻)의 지위가 이를 만한 것임을 알아 거기에 이른다.” 라고</t>
         </is>
       </c>
     </row>
@@ -3403,7 +3403,7 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>대단히 일을 그르친다.</t>
+          <t>하였는데, 이런 해석은 대단히 일을 그르친다.</t>
         </is>
       </c>
     </row>
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>항상 이러한 마음을 품으면</t>
+          <t>항상 이러한 마음을 품으면 이는</t>
         </is>
       </c>
     </row>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>이는 세상을 크게 어지럽히는 도(道)이고,</t>
+          <t>세상을 크게 어지럽히는 도(道)이고,</t>
         </is>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>것이다. “이를 바를 알아 그곳에 이른다.” 라는 것은</t>
+          <t>것이다. “이를 바를 알아 그곳에 이른다.” 라는</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>단지 그 도에 이르는 것일 뿐이다.</t>
+          <t>것은 단지 그 도에 이르는 것일 뿐이다.</t>
         </is>
       </c>
     </row>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>“용구(用九)는 단지</t>
+          <t>“용구(用九)는</t>
         </is>
       </c>
     </row>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>상구효(上九爻)</t>
+          <t>단지 상구효(上九爻)</t>
         </is>
       </c>
     </row>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>한 효(爻)에 해당된다.” 라고 말한 것은 옳지</t>
+          <t>한 효(爻)에</t>
         </is>
       </c>
     </row>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>않다.</t>
+          <t>해당된다.” 라고 말한 것은 옳지 않다.</t>
         </is>
       </c>
     </row>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>여섯</t>
+          <t>여섯 효가</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>효가 모두 구(九)를 쓴다.</t>
+          <t>모두 구(九)를 쓴다.</t>
         </is>
       </c>
     </row>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>구(九)를</t>
+          <t>구(九)를 쓰는 것은</t>
         </is>
       </c>
     </row>
@@ -3763,7 +3763,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>쓰는 것은 곧 강건함을 행하는 것이다. “용구(用九)는</t>
+          <t>곧 강건함을 행하는 것이다. “용구(用九)는</t>
         </is>
       </c>
     </row>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>우두머리가 되어서는 안 된다는 것이다.” 라는 것은</t>
+          <t>우두머리가 되어서는 안 된다는 것이다.” 라는</t>
         </is>
       </c>
     </row>
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>‘건(乾)은 지극히 강건하니, 또한</t>
+          <t>것은 ‘건(乾)은 지극히 강건하니,</t>
         </is>
       </c>
     </row>
@@ -3835,7 +3835,7 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.</t>
+          <t>또한 어찌 다시 남보다 앞장설 수 있겠는가?’ 라는 말이다.</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>화(禍)가 있으니, 이른바</t>
+          <t>화(禍)가 있으니,</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>“감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.</t>
+          <t>이른바 “감히 천하 사람보다 앞장서지 않는다.” 라는 것이다.</t>
         </is>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>건(乾)은 때에 순응하여 움직이니, 지나치지 않는</t>
+          <t>건(乾)은 때에 순응하여 움직이니,</t>
         </is>
       </c>
     </row>
@@ -3925,7 +3925,7 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>것이</t>
+          <t>지나치지</t>
         </is>
       </c>
     </row>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>곧 우두머리가 되지 않는 것이다.</t>
+          <t>않는 것이 곧 우두머리가 되지 않는 것이다.</t>
         </is>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>태자로 보는 것이</t>
+          <t>태자로 보는 것이 합당하면</t>
         </is>
       </c>
     </row>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>합당하면 태자로 보는 것이다.</t>
+          <t>태자로 보는 것이다.</t>
         </is>
       </c>
     </row>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>다만 한 가지에 구애되어서는 안 되니,</t>
+          <t>다만 한 가지에 구애되어서는 안</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>만약 한 가지 일만 고집한다면</t>
+          <t>되니, 만약 한 가지 일만</t>
         </is>
       </c>
     </row>
@@ -4267,7 +4267,7 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>384효(爻)가</t>
+          <t>고집한다면 384효(爻)가</t>
         </is>
       </c>
     </row>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>현인(賢人)에게는 현인의</t>
+          <t>현인(賢人)에게는</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>용도가 있다.</t>
+          <t>현인의 용도가 있다.</t>
         </is>
       </c>
     </row>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>임금에게는 임금의 용도가 있고, 신하에게는 신하의</t>
+          <t>임금에게는 임금의 용도가</t>
         </is>
       </c>
     </row>
@@ -4537,7 +4537,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>용도가 있어</t>
+          <t>있고, 신하에게는 신하의 용도가</t>
         </is>
       </c>
     </row>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>통하지 않는 바가 없다.”</t>
+          <t>있어 통하지 않는 바가 없다.”</t>
         </is>
       </c>
     </row>
@@ -4699,7 +4699,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>예컨대 ‘두터운 덕으로 만물을</t>
+          <t>예컨대 ‘두터운 덕으로 만물을 실어준다.’</t>
         </is>
       </c>
     </row>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>실어준다.’ 라는 것을 임금이 어찌 쓰지</t>
+          <t>라는 것을 임금이</t>
         </is>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>않을 수 있겠는가?”</t>
+          <t>어찌 쓰지 않을 수 있겠는가?”</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>양(陽)을 해치는 것이</t>
+          <t>양(陽)을 해치는</t>
         </is>
       </c>
     </row>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>소인(小人)이다.</t>
+          <t>것이 소인(小人)이다.</t>
         </is>
       </c>
     </row>
@@ -4879,7 +4879,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>이(利)가 의(義)에 조화로운 것이</t>
+          <t>이(利)가 의(義)에 조화로운</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>선(善)이고,</t>
+          <t>것이 선(善)이고, 이(利)가</t>
         </is>
       </c>
     </row>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>이(利)가 의(義)를 해치는 것이</t>
+          <t>의(義)를 해치는 것이</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>인하여 선생에게 물었다. “이 이(利)와</t>
+          <t>인하여 선생에게 물었다.</t>
         </is>
       </c>
     </row>
@@ -5041,7 +5041,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>‘이(利)를 근본으로 삼는다.’ 라는 말의 이(利)는</t>
+          <t>“이 이(利)와 ‘이(利)를 근본으로 삼는다.’ 라는 말의</t>
         </is>
       </c>
     </row>
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>같습니까?”</t>
+          <t>이(利)는 같습니까?”</t>
         </is>
       </c>
     </row>
@@ -5203,7 +5203,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’ 라고 말한</t>
+          <t>그러나 맹자(孟子)가 ‘하필 이(利)를 말씀하십니까?’</t>
         </is>
       </c>
     </row>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>경우는 대개 이(利)만을 마음에 두면</t>
+          <t>라고 말한 경우는 대개 이(利)만을 마음에 두면</t>
         </is>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>‘인(仁)하면서도 자기 어버이를 버리는 자는 있지 않으며, 의로우면서도</t>
+          <t>‘인(仁)하면서도 자기 어버이를 버리는 자는</t>
         </is>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>자기 임금을 뒤로하는 자는 있지 않다.’ 라고</t>
+          <t>있지 않으며, 의로우면서도 자기 임금을 뒤로하는 자는</t>
         </is>
       </c>
     </row>
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>하였으니, 자기 어버이를 버리지 않고</t>
+          <t>있지 않다.’ 라고 하였으니, 자기 어버이를 버리지 않고</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>오히려 장점이 있으나, ≪주역≫은 전혀</t>
+          <t>오히려 장점이 있으나,</t>
         </is>
       </c>
     </row>
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>이해를</t>
+          <t>≪주역≫은</t>
         </is>
       </c>
     </row>
@@ -5617,7 +5617,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>못하십니다.” 라고 하였다.</t>
+          <t>전혀 이해를 못하십니다.” 라고 하였다.</t>
         </is>
       </c>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>답하였다. “제가</t>
+          <t>답하였다.</t>
         </is>
       </c>
     </row>
@@ -5707,7 +5707,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>보기로는</t>
+          <t>“제가 보기로는</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>“전운사로서 능히 절조를 굽혀 일개</t>
+          <t>“전운사로서 능히 절조를 굽혀 일개 주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을</t>
         </is>
       </c>
     </row>
@@ -5815,7 +5815,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>주부에게 물었으며, 일개 주부로서 전운사에게 ≪주역≫을 알지 못한다고 감히 말하였으니, ≪주역≫의 도를</t>
+          <t>알지 못한다고 감히 말하였으니, ≪주역≫의</t>
         </is>
       </c>
     </row>
@@ -5833,7 +5833,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>깊이 아는 사람이 아니라면 그렇게</t>
+          <t>도를 깊이 아는 사람이 아니라면 그렇게</t>
         </is>
       </c>
     </row>
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>“구름이 가고 비가 내린다.” 라는</t>
+          <t>“구름이 가고 비가 내린다.” 라는 것은</t>
         </is>
       </c>
     </row>
@@ -5887,7 +5887,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>것은 건(乾)이 형통한 것이다.</t>
+          <t>건(乾)이 형통한 것이다.</t>
         </is>
       </c>
     </row>
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>만일 성인(聖人)이 일찍이 실천한 점을 보고자 한다면</t>
+          <t>만일 성인(聖人)이 일찍이 실천한 점을 보고자</t>
         </is>
       </c>
     </row>
@@ -5941,7 +5941,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>마땅히 순(舜)임금의 일에서 볼 수 있다.</t>
+          <t>한다면 마땅히 순(舜)임금의 일에서 볼 수 있다.</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을</t>
+          <t>있었던 것이 곧 ‘잠(潛)’ 이고, 질그릇을 굽고</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>굽고 물고기를 잡았을 때가</t>
+          <t>물고기를 잡았을 때가</t>
         </is>
       </c>
     </row>
@@ -6013,7 +6013,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>곧 ‘견(見)’ 이고, 그윽한 덕이 위로 올라가 알려진</t>
+          <t>곧 ‘견(見)’ 이고, 그윽한 덕이</t>
         </is>
       </c>
     </row>
@@ -6031,7 +6031,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>때가</t>
+          <t>위로 올라가 알려진 때가</t>
         </is>
       </c>
     </row>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>곧 ‘건건(乾乾)’</t>
+          <t>곧 ‘건건(乾乾)’ 이고,</t>
         </is>
       </c>
     </row>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>이고, 대록(大麓)에 들어갔을 때가</t>
+          <t>대록(大麓)에 들어갔을 때가</t>
         </is>
       </c>
     </row>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>무왕(武王)이 군대를</t>
+          <t>무왕(武王)이 군대를 사열한 것을 건괘(乾卦)</t>
         </is>
       </c>
     </row>
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>사열한 것을 건괘(乾卦) 구사효(九四爻)의</t>
+          <t>구사효(九四爻)의 의미로 여겼으니,</t>
         </is>
       </c>
     </row>
@@ -6157,7 +6157,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>의미로 여겼으니, 이는 대단히 의리가 없다.</t>
+          <t>이는 대단히 의리가 없다.</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>임금이니,</t>
+          <t>임금이니, 신하된</t>
         </is>
       </c>
     </row>
@@ -6301,7 +6301,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>신하된 자가</t>
+          <t>자가 어찌</t>
         </is>
       </c>
     </row>
@@ -6319,7 +6319,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>어찌 군대를 이끌고 자기 임금을 협박할 수 있겠는가.</t>
+          <t>군대를 이끌고 자기 임금을 협박할 수 있겠는가.</t>
         </is>
       </c>
     </row>
@@ -6355,7 +6355,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>또 주(紂)는</t>
+          <t>또 주(紂)는 사나움이 이와 같았는데</t>
         </is>
       </c>
     </row>
@@ -6373,7 +6373,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>사나움이 이와 같았는데 태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고</t>
+          <t>태사공(太史公)은 주(紂)에게 70만의 병력이 있었다고 하였으니,</t>
         </is>
       </c>
     </row>
@@ -6391,7 +6391,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>하였으니, 옳은지 알 수 없다.</t>
+          <t>옳은지 알 수 없다.</t>
         </is>
       </c>
     </row>
@@ -6499,7 +6499,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>‘십유일년(十有一年)’ 이라 하고,</t>
+          <t>‘십유일년(十有一年)’ 이라 하고, 그</t>
         </is>
       </c>
     </row>
@@ -6517,7 +6517,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>그 뒤 정경(正經)에</t>
+          <t>뒤 정경(正經)에</t>
         </is>
       </c>
     </row>
@@ -6535,7 +6535,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>‘유십유삼년(惟十有三年)’ 이라 하여</t>
+          <t>‘유십유삼년(惟十有三年)’ 이라</t>
         </is>
       </c>
     </row>
@@ -6553,7 +6553,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>선유(先儒)들이 잘못</t>
+          <t>하여 선유(先儒)들이 잘못</t>
         </is>
       </c>
     </row>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니, 이는</t>
+          <t>‘군자(君子)를 나아가게 하고 소인(小人)을 물러나게 하는 것’ 이라고 여겼으니,</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.</t>
+          <t>이는 성인(聖人)이 문득 의리(義理)를 안배한 것이 된다.</t>
         </is>
       </c>
     </row>
@@ -6805,7 +6805,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>음양(陰陽)의 수를 정한</t>
+          <t>음양(陰陽)의 수를 정한 것이니,</t>
         </is>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>것이니, 어찌 의리를 말한 것이겠는가.</t>
+          <t>어찌 의리를 말한 것이겠는가.</t>
         </is>
       </c>
     </row>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>되니, 단지 하도(河圖)의 수(數)에서 취하여</t>
+          <t>되니, 단지 하도(河圖)의 수(數)에서 취하여 살펴보건대</t>
         </is>
       </c>
     </row>
@@ -6913,7 +6913,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>살펴보건대 육(六)을 지나면 하나의 양(陽)이 생겨나니,</t>
+          <t>육(六)을 지나면 하나의 양(陽)이 생겨나니,</t>
         </is>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>팔(八)에 이르면 곧</t>
+          <t>팔(八)에 이르면</t>
         </is>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>순음(純陰)이 아니다.</t>
+          <t>곧 순음(純陰)이 아니다.</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고 하였으니</t>
+          <t>&lt;석수(釋水)&gt;에 “강물이 풀에 닿는 곳이 미(湄)이다.”라고</t>
         </is>
       </c>
     </row>
@@ -7039,7 +7039,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>물과 풀이 만나는 곳을 말하니</t>
+          <t>하였으니 물과 풀이 만나는 곳을 말하니</t>
         </is>
       </c>
     </row>
@@ -7111,7 +7111,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>엄(隒)이다.”라고 하였으니</t>
+          <t>엄(隒)이다.”라고</t>
         </is>
       </c>
     </row>
@@ -7129,7 +7129,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>엄(隒)은</t>
+          <t>하였으니 엄(隒)은</t>
         </is>
       </c>
     </row>
@@ -7291,7 +7291,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>승(升)은 이르기</t>
+          <t>승(升)은</t>
         </is>
       </c>
     </row>
@@ -7309,7 +7309,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>어려움을</t>
+          <t>이르기</t>
         </is>
       </c>
     </row>
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>말하니</t>
+          <t>어려움을 말하니</t>
         </is>
       </c>
     </row>
@@ -7525,7 +7525,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라</t>
+          <t>&lt;석수(釋水)&gt;에 “주(洲)보다 작은 모래톱[소주(小洲)]을 저(渚)라 하고,</t>
         </is>
       </c>
     </row>
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>하고, 저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은</t>
+          <t>저(渚)보다 작은 모래톱[소저(小渚)]을 지(沚)라 하고, 지(沚)보다 작은 모래톱[소지(小沚)]을</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>모래톱[소지(小沚)]을 지(坻)라고 한다.”라고 하였다. 그렇다면</t>
+          <t>지(坻)라고 한다.”라고</t>
         </is>
       </c>
     </row>
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>지(坻)는</t>
+          <t>하였다. 그렇다면 지(坻)는</t>
         </is>
       </c>
     </row>
@@ -7615,7 +7615,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은, 저(渚)나</t>
+          <t>&lt;전(傳)에서&gt; ‘소저(小渚)’라고 한 것은,</t>
         </is>
       </c>
     </row>
@@ -7633,7 +7633,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>지(沚)가</t>
+          <t>저(渚)나 지(沚)가</t>
         </is>
       </c>
     </row>
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>모두 물 가운데 있는 땅으로</t>
+          <t>모두 물 가운데 있는 땅으로 그</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>그 크기가 다른데</t>
+          <t>크기가 다른데</t>
         </is>
       </c>
     </row>
@@ -8101,7 +8101,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>‘차우(且右)’라고 하였기</t>
+          <t>‘차우(且右)’라고</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.</t>
+          <t>하였기 때문에 우(右)가 우측으로 돌아 나가는 것임을 안 것이다.</t>
         </is>
       </c>
     </row>
@@ -8155,7 +8155,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>따라가면 쉽게</t>
+          <t>따라가면 쉽게 이르는데</t>
         </is>
       </c>
     </row>
@@ -8173,7 +8173,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>이르는데 지금 오히려 우측으로 돌아 나가니 이는 이르기</t>
+          <t>지금 오히려 우측으로 돌아 나가니 이는 이르기</t>
         </is>
       </c>
     </row>
@@ -8263,7 +8263,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>좌측으로</t>
+          <t>좌측으로 돌아 나가는 것도</t>
         </is>
       </c>
     </row>
@@ -8281,7 +8281,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>돌아 나가는 것도 역시 우회하는 것이다.</t>
+          <t>역시 우회하는 것이다.</t>
         </is>
       </c>
     </row>
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>그런데 우(右)라고 한 것은</t>
+          <t>그런데 우(右)라고 한</t>
         </is>
       </c>
     </row>
@@ -8317,7 +8317,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.</t>
+          <t>것은 사(涘)․지(沚)와 운(韻)을 맞추기 위한 것이다.</t>
         </is>
       </c>
     </row>
